--- a/工资发放表/工资表 - 幼儿园.xlsx
+++ b/工资发放表/工资表 - 幼儿园.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\工资发放表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\芒海小学\记帐\工资发放表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FBF5F5-1E52-4A74-88FE-79525C10B819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537688B1-5439-45E0-9B38-8E2051D323DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>开户行</t>
   </si>
@@ -118,13 +129,78 @@
   <si>
     <t>芒海小学</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单位：徐闻县芒海小学                                      </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   20    年  月  日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>农村商业银行账号</t>
+  </si>
+  <si>
+    <t>金额(元）</t>
+  </si>
+  <si>
+    <t>签名</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>农村商业银行湛江徐闻支行</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>芒海小学幼儿园</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人：</t>
+  </si>
+  <si>
+    <t>南山镇芒海小学2023年教师工资发放表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   领导审批：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥拾 叁 万 柒 仟 伍 佰 零 拾 零 元 零 角 零 分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +276,72 @@
       <sz val="18"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -272,13 +414,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +475,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,8 +532,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,30 +898,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -707,7 +939,7 @@
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -838,21 +1070,257 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="16">
+        <v>8300</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="16">
+        <v>7300</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="16">
+        <v>7300</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6300</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="16">
+        <v>8300</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="20">
+        <f>G4+G5+G6+G7+G8</f>
+        <v>37500</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="G10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I8" xr:uid="{2BD5E101-9B20-41C6-B6C7-CEA556001235}">
+      <formula1>"代课,工勤,保安"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
